--- a/data/case1/20/Qlm2_3.xlsx
+++ b/data/case1/20/Qlm2_3.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.14406964132206923</v>
+        <v>-0.17344416360779746</v>
       </c>
       <c r="B1" s="0">
-        <v>0.1436750984899362</v>
+        <v>0.17308299752210132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.11640785070857085</v>
+        <v>-0.15097570217283796</v>
       </c>
       <c r="B2" s="0">
-        <v>0.11495093209510188</v>
+        <v>0.14956444850945338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.065234548748742682</v>
+        <v>-0.085066512183686882</v>
       </c>
       <c r="B3" s="0">
-        <v>0.064817960543628317</v>
+        <v>0.084764296479036716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.056817960607354223</v>
+        <v>-0.076764296486230066</v>
       </c>
       <c r="B4" s="0">
-        <v>0.056447030855565572</v>
+        <v>0.076504243210592904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.086883398706699033</v>
+        <v>-0.073504243214411957</v>
       </c>
       <c r="B5" s="0">
-        <v>0.085500547606176092</v>
+        <v>0.072642655309546278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035515807140646061</v>
+        <v>-0.027544552940181433</v>
       </c>
       <c r="B6" s="0">
-        <v>0.034892934475220017</v>
+        <v>0.027340411612314597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.024892934563561564</v>
+        <v>-0.017340411621998619</v>
       </c>
       <c r="B7" s="0">
-        <v>0.024733863369648112</v>
+        <v>0.017304228794714049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031954082159675767</v>
+        <v>-0.0073042288045357395</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031665039921072946</v>
+        <v>0.0072712450972289844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029665039961384476</v>
+        <v>-0.029652686314052712</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0294222065830545</v>
+        <v>0.029415650707663055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027422206626837919</v>
+        <v>-0.027415650711974493</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027406330731809092</v>
+        <v>0.027398661292025395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024406330782796637</v>
+        <v>-0.024398661297137636</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024379159005326834</v>
+        <v>0.024371401380640201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020879159060563701</v>
+        <v>-0.02087140138622523</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020677186059093966</v>
+        <v>0.020674454669425746</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017177186117900867</v>
+        <v>-0.017174454675359385</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017085309493923617</v>
+        <v>0.01708440816031942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.009085309583871215</v>
+        <v>-0.0090844081696506152</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090553821158971814</v>
+        <v>0.0090546583403030567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080553821592674879</v>
+        <v>-0.0080546583445357811</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080360645271930764</v>
+        <v>0.0080354172836258897</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060360645778576583</v>
+        <v>-0.0060354172886598612</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035538558591561</v>
+        <v>0.0060038638796511279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040035539072418302</v>
+        <v>-0.004003863884768144</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999349422666</v>
+        <v>0.0039999999933897357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.021267247822859048</v>
+        <v>-0.016107295353847917</v>
       </c>
       <c r="B18" s="0">
-        <v>0.021243320910077301</v>
+        <v>0.016092302453156293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.017243320938410633</v>
+        <v>-0.012092302456267578</v>
       </c>
       <c r="B19" s="0">
-        <v>0.017087147931053703</v>
+        <v>0.012017412489313539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.013087147962293599</v>
+        <v>-0.0080174124926184476</v>
       </c>
       <c r="B20" s="0">
-        <v>0.013055491024120514</v>
+        <v>0.0080057542425500117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090554910558564572</v>
+        <v>-0.0040057542459166484</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0090244466050659611</v>
+        <v>0.0039999999966244815</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045716383380748127</v>
+        <v>-0.060497936329708679</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501887534765473</v>
+        <v>0.060177117954497206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04050188757813622</v>
+        <v>-0.055177117959448019</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099559356304049</v>
+        <v>0.054553841609023657</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099559504626718</v>
+        <v>-0.020100295560072645</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999849721561</v>
+        <v>0.019999999983227212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.047984740499609657</v>
+        <v>-0.043098102373116731</v>
       </c>
       <c r="B25" s="0">
-        <v>0.047967026096060295</v>
+        <v>0.04307264166294722</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.045467026134446087</v>
+        <v>-0.040572641667205644</v>
       </c>
       <c r="B26" s="0">
-        <v>0.045445181842353577</v>
+        <v>0.0405434995453966</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.042945181881743455</v>
+        <v>-0.038043499549748283</v>
       </c>
       <c r="B27" s="0">
-        <v>0.042819920807071643</v>
+        <v>0.037892192193196728</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.040819920848626623</v>
+        <v>-0.021034370776651379</v>
       </c>
       <c r="B28" s="0">
-        <v>0.040739461912615127</v>
+        <v>0.021013133223262592</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.033739461991681985</v>
+        <v>-0.01401313323161002</v>
       </c>
       <c r="B29" s="0">
-        <v>0.03371969463521296</v>
+        <v>0.014005828092499506</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.026280304927711828</v>
+        <v>0.045994171860085142</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.026368432357548599</v>
+        <v>-0.046211096032697796</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.033368432279567983</v>
+        <v>0.053211096024803339</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.033434683948694754</v>
+        <v>-0.053340177298547786</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.043434683851611311</v>
+        <v>0.059743611227789373</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.043637176224368801</v>
+        <v>-0.060024928256360965</v>
       </c>
     </row>
   </sheetData>
